--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910/Roxie_vs_MM_NormalMCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910/Roxie_vs_MM_NormalMCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910.xlsx
@@ -573,49 +573,49 @@
         <v>-1200</v>
       </c>
       <c r="C2">
-        <v>-1.286611280076367</v>
+        <v>-1.286614573524786</v>
       </c>
       <c r="D2">
-        <v>-0.02451840615024088</v>
+        <v>-0.02451830866544253</v>
       </c>
       <c r="E2">
-        <v>-0.009466488113098283</v>
+        <v>-0.009466292636621193</v>
       </c>
       <c r="F2">
-        <v>-0.001521264384792737</v>
+        <v>-0.001521216313726218</v>
       </c>
       <c r="G2">
-        <v>0.0003341984742771842</v>
+        <v>0.0003341877785454939</v>
       </c>
       <c r="H2">
-        <v>0.0002294451505669774</v>
+        <v>0.0002294638643717321</v>
       </c>
       <c r="I2">
-        <v>-1.144709063005621E-05</v>
+        <v>-1.145792558340817E-05</v>
       </c>
       <c r="J2">
-        <v>-0.0002091832247891669</v>
+        <v>-0.0002091850990776087</v>
       </c>
       <c r="K2">
-        <v>-0.0001243626913575944</v>
+        <v>-0.0001243737531717098</v>
       </c>
       <c r="L2">
-        <v>3.387626285477306E-21</v>
+        <v>-2.743509327671535E-21</v>
       </c>
       <c r="M2">
-        <v>7.808656799176145E-05</v>
+        <v>7.807687069129578E-05</v>
       </c>
       <c r="N2">
-        <v>2.759711408621682E-05</v>
+        <v>2.756769586203161E-05</v>
       </c>
       <c r="O2">
-        <v>-9.900859038464369E-06</v>
+        <v>-9.911814244436767E-06</v>
       </c>
       <c r="P2">
-        <v>7.943220205540163E-06</v>
+        <v>7.966855761915833E-06</v>
       </c>
       <c r="Q2">
-        <v>2.503857477960606E-05</v>
+        <v>2.502978448139755E-05</v>
       </c>
       <c r="R2">
         <v>-0.2988425617549172</v>
@@ -671,49 +671,49 @@
         <v>-600</v>
       </c>
       <c r="C3">
-        <v>3890.371456136387</v>
+        <v>3890.37146066832</v>
       </c>
       <c r="D3">
-        <v>3.047065555762088</v>
+        <v>3.047064255131232</v>
       </c>
       <c r="E3">
-        <v>-8.570259872927284</v>
+        <v>-8.570259068285809</v>
       </c>
       <c r="F3">
-        <v>0.6597851930762387</v>
+        <v>0.6597842080863752</v>
       </c>
       <c r="G3">
-        <v>-4.890281829017006</v>
+        <v>-4.890281477230218</v>
       </c>
       <c r="H3">
-        <v>0.3856408028099518</v>
+        <v>0.3856401734366866</v>
       </c>
       <c r="I3">
-        <v>-4.37072299781445</v>
+        <v>-4.370723012211402</v>
       </c>
       <c r="J3">
-        <v>0.1146886198694083</v>
+        <v>0.1146885260334645</v>
       </c>
       <c r="K3">
-        <v>-1.127355321034658</v>
+        <v>-1.127355240556997</v>
       </c>
       <c r="L3">
-        <v>2.713113069042745E-18</v>
+        <v>3.503961063670461E-19</v>
       </c>
       <c r="M3">
-        <v>-0.006110947992468235</v>
+        <v>-0.006111054765130324</v>
       </c>
       <c r="N3">
-        <v>0.08309652849636219</v>
+        <v>0.0830963310389965</v>
       </c>
       <c r="O3">
-        <v>-0.6300114426664342</v>
+        <v>-0.6300114662409626</v>
       </c>
       <c r="P3">
-        <v>-0.002393823939184159</v>
+        <v>-0.002393846725934956</v>
       </c>
       <c r="Q3">
-        <v>-0.001628695412157019</v>
+        <v>-0.00162844939901658</v>
       </c>
       <c r="R3">
         <v>3883.249378802444</v>
@@ -772,46 +772,46 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>0.5180901159470328</v>
+        <v>0.518089763091014</v>
       </c>
       <c r="E4">
-        <v>-7.94662632448668</v>
+        <v>-7.946629681017858</v>
       </c>
       <c r="F4">
-        <v>0.5643774267347087</v>
+        <v>0.564375583008103</v>
       </c>
       <c r="G4">
-        <v>-6.388805317583032</v>
+        <v>-6.38880650104868</v>
       </c>
       <c r="H4">
-        <v>0.3252414648603795</v>
+        <v>0.32524176043777</v>
       </c>
       <c r="I4">
-        <v>0.5963720389267012</v>
+        <v>0.5963717511011408</v>
       </c>
       <c r="J4">
-        <v>0.07371255548367196</v>
+        <v>0.07371263127050383</v>
       </c>
       <c r="K4">
-        <v>1.240120029151536</v>
+        <v>1.240120284137045</v>
       </c>
       <c r="L4">
-        <v>-2.99847122688038E-17</v>
+        <v>2.839828790923642E-17</v>
       </c>
       <c r="M4">
-        <v>2.968844782954086</v>
+        <v>2.968844832805313</v>
       </c>
       <c r="N4">
-        <v>0.01806005652528785</v>
+        <v>0.01806005584569555</v>
       </c>
       <c r="O4">
-        <v>-1.79277900257043</v>
+        <v>-1.792778589417576</v>
       </c>
       <c r="P4">
-        <v>0.01140020296662065</v>
+        <v>0.01140083591840674</v>
       </c>
       <c r="Q4">
-        <v>0.2496949170707458</v>
+        <v>0.2496952444187298</v>
       </c>
       <c r="R4">
         <v>9999.54449330356</v>
@@ -867,49 +867,49 @@
         <v>600</v>
       </c>
       <c r="C5">
-        <v>3923.262505914739</v>
+        <v>3923.262506541402</v>
       </c>
       <c r="D5">
-        <v>0.3412885529534342</v>
+        <v>0.3412869635079467</v>
       </c>
       <c r="E5">
-        <v>1.613407045125527</v>
+        <v>1.613405940984589</v>
       </c>
       <c r="F5">
-        <v>-0.173040162021936</v>
+        <v>-0.1730423529150069</v>
       </c>
       <c r="G5">
-        <v>-0.4724498008883417</v>
+        <v>-0.4724507063539845</v>
       </c>
       <c r="H5">
-        <v>-0.1631858509150433</v>
+        <v>-0.1631872876746838</v>
       </c>
       <c r="I5">
-        <v>-2.835263295948582</v>
+        <v>-2.835263394254991</v>
       </c>
       <c r="J5">
-        <v>-0.02557395679191351</v>
+        <v>-0.02557353180558791</v>
       </c>
       <c r="K5">
-        <v>-0.6134453324648477</v>
+        <v>-0.6134451622331477</v>
       </c>
       <c r="L5">
-        <v>2.312771528050997E-19</v>
+        <v>-1.206369704626365E-17</v>
       </c>
       <c r="M5">
-        <v>0.2345326383888897</v>
+        <v>0.2345331768540859</v>
       </c>
       <c r="N5">
-        <v>-0.02546856405088904</v>
+        <v>-0.02546898233877312</v>
       </c>
       <c r="O5">
-        <v>-0.5530151740887652</v>
+        <v>-0.5530149784014641</v>
       </c>
       <c r="P5">
-        <v>-0.009497288093807125</v>
+        <v>-0.009497034110738035</v>
       </c>
       <c r="Q5">
-        <v>0.03430887770954263</v>
+        <v>0.03430893381928055</v>
       </c>
       <c r="R5">
         <v>3924.583743737668</v>
@@ -965,49 +965,49 @@
         <v>1200</v>
       </c>
       <c r="C6">
-        <v>0.16054923181196</v>
+        <v>0.1605477180485889</v>
       </c>
       <c r="D6">
-        <v>0.0008430788396934183</v>
+        <v>0.0008430608274273485</v>
       </c>
       <c r="E6">
-        <v>-0.0001248914518857479</v>
+        <v>-0.0001249101362538055</v>
       </c>
       <c r="F6">
-        <v>4.650517292571763E-05</v>
+        <v>4.649934495860271E-05</v>
       </c>
       <c r="G6">
-        <v>1.193463657066454E-05</v>
+        <v>1.193746508480733E-05</v>
       </c>
       <c r="H6">
-        <v>-1.097969193528654E-05</v>
+        <v>-1.098201942347647E-05</v>
       </c>
       <c r="I6">
-        <v>-4.979839104319954E-06</v>
+        <v>-4.976677766157807E-06</v>
       </c>
       <c r="J6">
-        <v>4.277236384154208E-06</v>
+        <v>4.275175249820576E-06</v>
       </c>
       <c r="K6">
-        <v>3.279408628308438E-06</v>
+        <v>3.276084222563056E-06</v>
       </c>
       <c r="L6">
-        <v>-7.531825575490333E-22</v>
+        <v>-1.166776200920497E-21</v>
       </c>
       <c r="M6">
-        <v>5.464725878087352E-06</v>
+        <v>5.466747240017978E-06</v>
       </c>
       <c r="N6">
-        <v>-4.333039186649622E-06</v>
+        <v>-4.334401341098936E-06</v>
       </c>
       <c r="O6">
-        <v>-4.209027569005735E-06</v>
+        <v>-4.215123395437086E-06</v>
       </c>
       <c r="P6">
-        <v>4.108303919050489E-06</v>
+        <v>4.108299293778678E-06</v>
       </c>
       <c r="Q6">
-        <v>-2.357527492677106E-06</v>
+        <v>-2.357639108718749E-06</v>
       </c>
       <c r="R6">
         <v>1.629919257347524</v>
